--- a/Base/Teams/Jaguars/Distributions.xlsx
+++ b/Base/Teams/Jaguars/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(4.351729668594969, 4.158473108161456, -5.701813133391765, 9.514895681513602)</t>
-  </si>
-  <si>
-    <t>JSU(-0.6626272898280381, 1.0437018300840486, 5.619388404799014, 4.483143905218592)</t>
-  </si>
-  <si>
-    <t>NCT(3.0351633996817773, 1.5439325068435001, -0.9751274040487017, 2.4652780769070404)</t>
-  </si>
-  <si>
-    <t>NIG(1.1362266075249317, 0.8367958225757108, 4.842540958488779, 5.703205606957059)</t>
+    <t>MIE(4.262580982041177, 4.031621103296338, -5.649476117924912, 9.187166381605149)</t>
+  </si>
+  <si>
+    <t>NIG(0.6715896618005597, 0.402211843272708, 6.491386786046982, 5.0720989498947)</t>
+  </si>
+  <si>
+    <t>NCT(3.1810663867728217, 1.606193081331272, -1.136299839010911, 2.5059020270901167)</t>
+  </si>
+  <si>
+    <t>NIG(1.153524607450748, 0.8802659054066564, 4.520701796837448, 5.551211290867952)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Jaguars/Distributions.xlsx
+++ b/Base/Teams/Jaguars/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(4.262580982041177, 4.031621103296338, -5.649476117924912, 9.187166381605149)</t>
-  </si>
-  <si>
-    <t>NIG(0.6715896618005597, 0.402211843272708, 6.491386786046982, 5.0720989498947)</t>
-  </si>
-  <si>
-    <t>NCT(3.1810663867728217, 1.606193081331272, -1.136299839010911, 2.5059020270901167)</t>
-  </si>
-  <si>
-    <t>NIG(1.153524607450748, 0.8802659054066564, 4.520701796837448, 5.551211290867952)</t>
+    <t>MIE(4.62233424183071, 4.226373885609709, -6.27359731093439, 9.623620715038015)</t>
+  </si>
+  <si>
+    <t>JSU(-0.6881155578064038, 1.0278436566384759, 5.367824829959981, 4.317324303180331)</t>
+  </si>
+  <si>
+    <t>NCT(3.1121710242310137, 1.5013593582754363, -0.8700961865767476, 2.4906628865443783)</t>
+  </si>
+  <si>
+    <t>NIG(1.1361982356299847, 0.8560351897718665, 4.68694349405138, 5.486226171494458)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Jaguars/Distributions.xlsx
+++ b/Base/Teams/Jaguars/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(4.62233424183071, 4.226373885609709, -6.27359731093439, 9.623620715038015)</t>
-  </si>
-  <si>
-    <t>JSU(-0.6881155578064038, 1.0278436566384759, 5.367824829959981, 4.317324303180331)</t>
-  </si>
-  <si>
-    <t>NCT(3.1121710242310137, 1.5013593582754363, -0.8700961865767476, 2.4906628865443783)</t>
-  </si>
-  <si>
-    <t>NIG(1.1361982356299847, 0.8560351897718665, 4.68694349405138, 5.486226171494458)</t>
+    <t>MIE(5.31245870155501, 4.209500216246083, -6.581681283417989, 9.439285990627495)</t>
+  </si>
+  <si>
+    <t>NIG(0.7229778606376014, 0.46932266786680094, 6.094330802446195, 4.839961228474582)</t>
+  </si>
+  <si>
+    <t>NCT(2.7632169990972817, 1.5176921385096067, -0.7668970359453193, 2.3648879616999468)</t>
+  </si>
+  <si>
+    <t>NIG(1.2250919017946131, 0.9547966187437578, 4.22424672304013, 5.327559126759496)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Jaguars/Distributions.xlsx
+++ b/Base/Teams/Jaguars/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(5.31245870155501, 4.209500216246083, -6.581681283417989, 9.439285990627495)</t>
-  </si>
-  <si>
-    <t>NIG(0.7229778606376014, 0.46932266786680094, 6.094330802446195, 4.839961228474582)</t>
-  </si>
-  <si>
-    <t>NCT(2.7632169990972817, 1.5176921385096067, -0.7668970359453193, 2.3648879616999468)</t>
-  </si>
-  <si>
-    <t>NIG(1.2250919017946131, 0.9547966187437578, 4.22424672304013, 5.327559126759496)</t>
+    <t>MIE(5.3058492471983385, 4.297012431873066, -6.549959678498338, 9.521250737270659)</t>
+  </si>
+  <si>
+    <t>NIG(0.7124466850086493, 0.46998261716199063, 6.015706881425392, 4.8627006721890975)</t>
+  </si>
+  <si>
+    <t>NCT(2.950481764569178, 1.5684429365770551, -0.8381683677234233, 2.4222175445306253)</t>
+  </si>
+  <si>
+    <t>NIG(1.0455584505516207, 0.8055202023944532, 4.800455262518598, 5.050767645649259)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Jaguars/Distributions.xlsx
+++ b/Base/Teams/Jaguars/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(5.3058492471983385, 4.297012431873066, -6.549959678498338, 9.521250737270659)</t>
-  </si>
-  <si>
-    <t>NIG(0.7124466850086493, 0.46998261716199063, 6.015706881425392, 4.8627006721890975)</t>
-  </si>
-  <si>
-    <t>NCT(2.950481764569178, 1.5684429365770551, -0.8381683677234233, 2.4222175445306253)</t>
-  </si>
-  <si>
-    <t>NIG(1.0455584505516207, 0.8055202023944532, 4.800455262518598, 5.050767645649259)</t>
+    <t>MIE(5.7637555488771, 4.247257195142881, -6.659484915168087, 9.258208568900521)</t>
+  </si>
+  <si>
+    <t>NIG(0.7659046416502266, 0.501112600305588, 5.936722188046554, 4.979771815534203)</t>
+  </si>
+  <si>
+    <t>NCT(2.9650191419577445, 1.6158338413730648, -0.9670632119792966, 2.437354425456652)</t>
+  </si>
+  <si>
+    <t>NIG(1.049084254482982, 0.807297829251432, 4.85164001064399, 5.026121155240573)</t>
   </si>
 </sst>
 </file>
